--- a/data/pca/factorExposure/factorExposure_2009-01-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-05.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01946448379771468</v>
+        <v>-0.01794519311499878</v>
       </c>
       <c r="C2">
-        <v>-0.008409817443211542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01079025304980158</v>
+      </c>
+      <c r="D2">
+        <v>0.01172775502821471</v>
+      </c>
+      <c r="E2">
+        <v>-0.01508604262898159</v>
+      </c>
+      <c r="F2">
+        <v>-0.009305620276079967</v>
+      </c>
+      <c r="G2">
+        <v>-0.01820884475218934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.07986447355726677</v>
+        <v>-0.08289640529818419</v>
       </c>
       <c r="C4">
-        <v>-0.08412368998801278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08731937408981043</v>
+      </c>
+      <c r="D4">
+        <v>-0.06034955595868573</v>
+      </c>
+      <c r="E4">
+        <v>-0.02726797827930533</v>
+      </c>
+      <c r="F4">
+        <v>-0.0279745841539511</v>
+      </c>
+      <c r="G4">
+        <v>-0.02706395767198626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.0039914973589435</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.001266986783706979</v>
+      </c>
+      <c r="D5">
+        <v>-0.0008604120090566122</v>
+      </c>
+      <c r="E5">
+        <v>0.00442736735956828</v>
+      </c>
+      <c r="F5">
+        <v>-0.001508030538553484</v>
+      </c>
+      <c r="G5">
+        <v>0.005747441457637972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1700163481762806</v>
+        <v>-0.1713808235977044</v>
       </c>
       <c r="C6">
-        <v>0.02165371561208175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.01068472098359022</v>
+      </c>
+      <c r="D6">
+        <v>-0.06305333123155188</v>
+      </c>
+      <c r="E6">
+        <v>0.06401668539104458</v>
+      </c>
+      <c r="F6">
+        <v>-0.01360444221206272</v>
+      </c>
+      <c r="G6">
+        <v>0.02051210782757524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05341123816704742</v>
+        <v>-0.05522846101650714</v>
       </c>
       <c r="C7">
-        <v>-0.05685403912190117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06212515613969748</v>
+      </c>
+      <c r="D7">
+        <v>-0.06855758218404481</v>
+      </c>
+      <c r="E7">
+        <v>-0.06815085568384487</v>
+      </c>
+      <c r="F7">
+        <v>-0.009404847414698549</v>
+      </c>
+      <c r="G7">
+        <v>-0.07395068707367125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05142216515766398</v>
+        <v>-0.04913502606539663</v>
       </c>
       <c r="C8">
-        <v>-0.05518270613689231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05477745870084762</v>
+      </c>
+      <c r="D8">
+        <v>0.0182860357119149</v>
+      </c>
+      <c r="E8">
+        <v>-0.04300531676369584</v>
+      </c>
+      <c r="F8">
+        <v>0.001178484780382089</v>
+      </c>
+      <c r="G8">
+        <v>-0.000894705744175013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05737518405642951</v>
+        <v>-0.06201675880599565</v>
       </c>
       <c r="C9">
-        <v>-0.09175053867349486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09275556910836247</v>
+      </c>
+      <c r="D9">
+        <v>-0.09055565272097203</v>
+      </c>
+      <c r="E9">
+        <v>-0.05106339961554101</v>
+      </c>
+      <c r="F9">
+        <v>-0.01790866404650135</v>
+      </c>
+      <c r="G9">
+        <v>-0.002924054677513888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1156615298835327</v>
+        <v>-0.1025186686857402</v>
       </c>
       <c r="C10">
-        <v>0.146534888147425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1358030076904047</v>
+      </c>
+      <c r="D10">
+        <v>0.09245598803549344</v>
+      </c>
+      <c r="E10">
+        <v>-0.05487929917526573</v>
+      </c>
+      <c r="F10">
+        <v>0.01720019597027229</v>
+      </c>
+      <c r="G10">
+        <v>0.01013293713197542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.078421127129798</v>
+        <v>-0.07594113001141173</v>
       </c>
       <c r="C11">
-        <v>-0.1318166457908435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1309588445334492</v>
+      </c>
+      <c r="D11">
+        <v>-0.04983952411358677</v>
+      </c>
+      <c r="E11">
+        <v>-0.07427250371636328</v>
+      </c>
+      <c r="F11">
+        <v>-0.01633795148940947</v>
+      </c>
+      <c r="G11">
+        <v>0.003628258151720898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.07948989366485126</v>
+        <v>-0.07598235330440205</v>
       </c>
       <c r="C12">
-        <v>-0.1576059542049305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1546045452568738</v>
+      </c>
+      <c r="D12">
+        <v>-0.05454929246036446</v>
+      </c>
+      <c r="E12">
+        <v>-0.07928008312744078</v>
+      </c>
+      <c r="F12">
+        <v>-0.01004327073168151</v>
+      </c>
+      <c r="G12">
+        <v>-0.0210332627144289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.03998455496188875</v>
+        <v>-0.04171782717127677</v>
       </c>
       <c r="C13">
-        <v>-0.06759000822147174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07176262113530903</v>
+      </c>
+      <c r="D13">
+        <v>-0.03504452864113353</v>
+      </c>
+      <c r="E13">
+        <v>-0.07640950783670608</v>
+      </c>
+      <c r="F13">
+        <v>-0.01080576931955388</v>
+      </c>
+      <c r="G13">
+        <v>-0.02953846125085045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02075457388756351</v>
+        <v>-0.02329809116034382</v>
       </c>
       <c r="C14">
-        <v>-0.04832762798884987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.0494515156352062</v>
+      </c>
+      <c r="D14">
+        <v>-0.04540479858821793</v>
+      </c>
+      <c r="E14">
+        <v>-0.07216885042795772</v>
+      </c>
+      <c r="F14">
+        <v>-0.01229826698400072</v>
+      </c>
+      <c r="G14">
+        <v>0.009185118669944821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03315568462693286</v>
+        <v>-0.0334807779918782</v>
       </c>
       <c r="C15">
-        <v>-0.06151880405474473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.05954866219279391</v>
+      </c>
+      <c r="D15">
+        <v>-0.0481547244063622</v>
+      </c>
+      <c r="E15">
+        <v>-0.03097178094233906</v>
+      </c>
+      <c r="F15">
+        <v>0.0171509747280116</v>
+      </c>
+      <c r="G15">
+        <v>-0.01395124779059719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05659642806524361</v>
+        <v>-0.05531618404371926</v>
       </c>
       <c r="C16">
-        <v>-0.1527408919171477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.151517130982803</v>
+      </c>
+      <c r="D16">
+        <v>-0.04923122902967485</v>
+      </c>
+      <c r="E16">
+        <v>-0.06216073793576263</v>
+      </c>
+      <c r="F16">
+        <v>-0.03309745470482629</v>
+      </c>
+      <c r="G16">
+        <v>0.01535367390842676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.006833903210818146</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004453038314260247</v>
+      </c>
+      <c r="D17">
+        <v>0.002575407371469149</v>
+      </c>
+      <c r="E17">
+        <v>0.00777646030905489</v>
+      </c>
+      <c r="F17">
+        <v>0.01046944451112348</v>
+      </c>
+      <c r="G17">
+        <v>0.00874826251682248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.04335532860776924</v>
+        <v>-0.05360660132608173</v>
       </c>
       <c r="C18">
-        <v>-0.05196470654369928</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04693360067345188</v>
+      </c>
+      <c r="D18">
+        <v>0.002554220695249867</v>
+      </c>
+      <c r="E18">
+        <v>0.05503987548142288</v>
+      </c>
+      <c r="F18">
+        <v>0.01098501391533742</v>
+      </c>
+      <c r="G18">
+        <v>0.01315455851936828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0567551045620432</v>
+        <v>-0.05597954823874564</v>
       </c>
       <c r="C20">
-        <v>-0.1007108336211964</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.09908081856302131</v>
+      </c>
+      <c r="D20">
+        <v>-0.0736257297969798</v>
+      </c>
+      <c r="E20">
+        <v>-0.06540942286440916</v>
+      </c>
+      <c r="F20">
+        <v>-0.009048244866494906</v>
+      </c>
+      <c r="G20">
+        <v>-0.00573875002224026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04404914228983833</v>
+        <v>-0.04568904978090338</v>
       </c>
       <c r="C21">
-        <v>-0.06372372510062438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06067534101779066</v>
+      </c>
+      <c r="D21">
+        <v>-0.02202586298586936</v>
+      </c>
+      <c r="E21">
+        <v>-0.06639376139929627</v>
+      </c>
+      <c r="F21">
+        <v>-0.01370512944948103</v>
+      </c>
+      <c r="G21">
+        <v>-0.02631160080647471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04493283520603906</v>
+        <v>-0.04497526346929011</v>
       </c>
       <c r="C22">
-        <v>-0.03544710832396997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03928171684307292</v>
+      </c>
+      <c r="D22">
+        <v>0.09805090726502312</v>
+      </c>
+      <c r="E22">
+        <v>0.05568661042182217</v>
+      </c>
+      <c r="F22">
+        <v>-0.08496754915346259</v>
+      </c>
+      <c r="G22">
+        <v>0.1158680169329667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04494244049857431</v>
+        <v>-0.04498367940027641</v>
       </c>
       <c r="C23">
-        <v>-0.03544071008358722</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03927614968943059</v>
+      </c>
+      <c r="D23">
+        <v>0.0980917940606393</v>
+      </c>
+      <c r="E23">
+        <v>0.05568418487169106</v>
+      </c>
+      <c r="F23">
+        <v>-0.08496538310341573</v>
+      </c>
+      <c r="G23">
+        <v>0.115932386192986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06504423623319923</v>
+        <v>-0.06374972304888581</v>
       </c>
       <c r="C24">
-        <v>-0.1405591487952981</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1373394601804187</v>
+      </c>
+      <c r="D24">
+        <v>-0.05757463425838306</v>
+      </c>
+      <c r="E24">
+        <v>-0.06647671804710313</v>
+      </c>
+      <c r="F24">
+        <v>-0.02156527674116878</v>
+      </c>
+      <c r="G24">
+        <v>-0.004895790854613391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07108893737854964</v>
+        <v>-0.0689478305205776</v>
       </c>
       <c r="C25">
-        <v>-0.1226715838835379</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1211426449630512</v>
+      </c>
+      <c r="D25">
+        <v>-0.04628390022694747</v>
+      </c>
+      <c r="E25">
+        <v>-0.09567703746351117</v>
+      </c>
+      <c r="F25">
+        <v>0.003995248342541522</v>
+      </c>
+      <c r="G25">
+        <v>-0.03543543978308016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05706270063468161</v>
+        <v>-0.06124911069547816</v>
       </c>
       <c r="C26">
-        <v>-0.07233176513631423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.07495244283439231</v>
+      </c>
+      <c r="D26">
+        <v>-0.02484121221328627</v>
+      </c>
+      <c r="E26">
+        <v>-0.08163696475247097</v>
+      </c>
+      <c r="F26">
+        <v>0.001679746712258355</v>
+      </c>
+      <c r="G26">
+        <v>-0.02115628332487257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1715818185584127</v>
+        <v>-0.1755441167997347</v>
       </c>
       <c r="C28">
-        <v>0.2312647100432601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2308429032146198</v>
+      </c>
+      <c r="D28">
+        <v>-0.001260882119291511</v>
+      </c>
+      <c r="E28">
+        <v>-0.1546993079210247</v>
+      </c>
+      <c r="F28">
+        <v>0.02157858927850129</v>
+      </c>
+      <c r="G28">
+        <v>-0.02594850958958104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02498875466898148</v>
+        <v>-0.02687714490328902</v>
       </c>
       <c r="C29">
-        <v>-0.05489860094460469</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05303163610389925</v>
+      </c>
+      <c r="D29">
+        <v>-0.01012905613003728</v>
+      </c>
+      <c r="E29">
+        <v>-0.06938255263200549</v>
+      </c>
+      <c r="F29">
+        <v>-0.01236925340821141</v>
+      </c>
+      <c r="G29">
+        <v>0.006683447430089251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03383133970253965</v>
+        <v>-0.03614674418132568</v>
       </c>
       <c r="C30">
-        <v>-0.06629903413550257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07347830753567923</v>
+      </c>
+      <c r="D30">
+        <v>-0.1349900778154546</v>
+      </c>
+      <c r="E30">
+        <v>-0.07657885906564785</v>
+      </c>
+      <c r="F30">
+        <v>0.0310402188962395</v>
+      </c>
+      <c r="G30">
+        <v>-0.03691544799340764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05314750302941504</v>
+        <v>-0.05218511307781248</v>
       </c>
       <c r="C31">
-        <v>-0.03753544594672498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03957125179028959</v>
+      </c>
+      <c r="D31">
+        <v>-0.004335129614053236</v>
+      </c>
+      <c r="E31">
+        <v>-0.00837572700903179</v>
+      </c>
+      <c r="F31">
+        <v>-0.0454218326715586</v>
+      </c>
+      <c r="G31">
+        <v>0.01382316396978169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04277114869640248</v>
+        <v>-0.04632330640811817</v>
       </c>
       <c r="C32">
-        <v>-0.0575924445310536</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.05542480991958737</v>
+      </c>
+      <c r="D32">
+        <v>-0.01639166627604691</v>
+      </c>
+      <c r="E32">
+        <v>-0.004689544251145619</v>
+      </c>
+      <c r="F32">
+        <v>0.01670605995622033</v>
+      </c>
+      <c r="G32">
+        <v>-0.0132175831517198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07596379011883699</v>
+        <v>-0.08036681957497961</v>
       </c>
       <c r="C33">
-        <v>-0.1145328970808018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1237787539405304</v>
+      </c>
+      <c r="D33">
+        <v>-0.07195828061112862</v>
+      </c>
+      <c r="E33">
+        <v>-0.06034626535493816</v>
+      </c>
+      <c r="F33">
+        <v>-0.0295862713999668</v>
+      </c>
+      <c r="G33">
+        <v>0.02046670002350761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05359119057326558</v>
+        <v>-0.05276721961267681</v>
       </c>
       <c r="C34">
-        <v>-0.124871846763692</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1244465230416731</v>
+      </c>
+      <c r="D34">
+        <v>-0.08314786879857865</v>
+      </c>
+      <c r="E34">
+        <v>-0.0820961494188448</v>
+      </c>
+      <c r="F34">
+        <v>0.001962459690880765</v>
+      </c>
+      <c r="G34">
+        <v>0.02489830911300934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02642992966671142</v>
+        <v>-0.02890414053377625</v>
       </c>
       <c r="C35">
-        <v>-0.019084409118729</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.02131442112262009</v>
+      </c>
+      <c r="D35">
+        <v>-0.01138747461756127</v>
+      </c>
+      <c r="E35">
+        <v>-0.03169263958769092</v>
+      </c>
+      <c r="F35">
+        <v>0.01220859810798837</v>
+      </c>
+      <c r="G35">
+        <v>0.02159247358742671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0255669076404524</v>
+        <v>-0.02766616933106769</v>
       </c>
       <c r="C36">
-        <v>-0.05397299488041729</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.0529176974263735</v>
+      </c>
+      <c r="D36">
+        <v>-0.06109952354174673</v>
+      </c>
+      <c r="E36">
+        <v>-0.02083875086767464</v>
+      </c>
+      <c r="F36">
+        <v>0.02731736035058371</v>
+      </c>
+      <c r="G36">
+        <v>0.08648574380849011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0005659958718344097</v>
+        <v>-0.004091964976254936</v>
       </c>
       <c r="C37">
-        <v>0.0004398100952427351</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.007217541729040797</v>
+      </c>
+      <c r="D37">
+        <v>-0.001913900917395337</v>
+      </c>
+      <c r="E37">
+        <v>-0.009364126480905149</v>
+      </c>
+      <c r="F37">
+        <v>-0.005424368953455041</v>
+      </c>
+      <c r="G37">
+        <v>-0.003851533399327511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0793386267085943</v>
+        <v>-0.07452221621919373</v>
       </c>
       <c r="C39">
-        <v>-0.1527801924902914</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1463335676573631</v>
+      </c>
+      <c r="D39">
+        <v>-0.02419607200963369</v>
+      </c>
+      <c r="E39">
+        <v>-0.1226119543951063</v>
+      </c>
+      <c r="F39">
+        <v>-0.05593317947883222</v>
+      </c>
+      <c r="G39">
+        <v>-0.02888182491232918</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04823795257523052</v>
+        <v>-0.0511270377676479</v>
       </c>
       <c r="C40">
-        <v>-0.07210395730280332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.07748542152737196</v>
+      </c>
+      <c r="D40">
+        <v>-0.01322574893505616</v>
+      </c>
+      <c r="E40">
+        <v>-0.05328355919249845</v>
+      </c>
+      <c r="F40">
+        <v>0.03797285369574942</v>
+      </c>
+      <c r="G40">
+        <v>0.002832275783887882</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02897814809387081</v>
+        <v>-0.02907253679576269</v>
       </c>
       <c r="C41">
-        <v>-0.02333766761483777</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02472160821931151</v>
+      </c>
+      <c r="D41">
+        <v>0.009062958847481139</v>
+      </c>
+      <c r="E41">
+        <v>0.007499704891771601</v>
+      </c>
+      <c r="F41">
+        <v>0.01545390352400077</v>
+      </c>
+      <c r="G41">
+        <v>0.002413899028188827</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04327491023583978</v>
+        <v>-0.0418133282292181</v>
       </c>
       <c r="C43">
-        <v>-0.04109646300589287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03785154977012947</v>
+      </c>
+      <c r="D43">
+        <v>0.01335945449427437</v>
+      </c>
+      <c r="E43">
+        <v>-0.0172864053080048</v>
+      </c>
+      <c r="F43">
+        <v>-0.02749904578841645</v>
+      </c>
+      <c r="G43">
+        <v>0.03115589246686253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05765299336242206</v>
+        <v>-0.0619330752144246</v>
       </c>
       <c r="C44">
-        <v>-0.08949941905078276</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.09107563918592021</v>
+      </c>
+      <c r="D44">
+        <v>-0.2915956156870734</v>
+      </c>
+      <c r="E44">
+        <v>-0.120323967523357</v>
+      </c>
+      <c r="F44">
+        <v>0.06592209408525121</v>
+      </c>
+      <c r="G44">
+        <v>0.1426834136874201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0006132328785011071</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0006923107872390807</v>
+      </c>
+      <c r="D45">
+        <v>0.0002670742771082244</v>
+      </c>
+      <c r="E45">
+        <v>0.002649667716679439</v>
+      </c>
+      <c r="F45">
+        <v>-0.002209577430999212</v>
+      </c>
+      <c r="G45">
+        <v>-0.003140468783047661</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02792708119757025</v>
+        <v>-0.02909334760767232</v>
       </c>
       <c r="C46">
-        <v>-0.04263308664127334</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.03991598851103569</v>
+      </c>
+      <c r="D46">
+        <v>-0.003199058672931746</v>
+      </c>
+      <c r="E46">
+        <v>-0.05743387417450477</v>
+      </c>
+      <c r="F46">
+        <v>-0.04984321873810664</v>
+      </c>
+      <c r="G46">
+        <v>0.007645049110723182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05648129641555535</v>
+        <v>-0.05410850965613929</v>
       </c>
       <c r="C47">
-        <v>-0.0395650051310243</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.03889602426365775</v>
+      </c>
+      <c r="D47">
+        <v>0.03325885062369127</v>
+      </c>
+      <c r="E47">
+        <v>0.01933613173783912</v>
+      </c>
+      <c r="F47">
+        <v>-0.0576521972346804</v>
+      </c>
+      <c r="G47">
+        <v>0.03230674796599207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04773142656981214</v>
+        <v>-0.04982755280905526</v>
       </c>
       <c r="C48">
-        <v>-0.07051092332946463</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.06992772345375788</v>
+      </c>
+      <c r="D48">
+        <v>-0.03439735185237173</v>
+      </c>
+      <c r="E48">
+        <v>-0.06092085577113664</v>
+      </c>
+      <c r="F48">
+        <v>-0.01167714584759045</v>
+      </c>
+      <c r="G48">
+        <v>-0.04038935115921808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1884851053724499</v>
+        <v>-0.1940139874415267</v>
       </c>
       <c r="C49">
-        <v>0.01823190620092307</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01381267710058964</v>
+      </c>
+      <c r="D49">
+        <v>-0.02847832102564329</v>
+      </c>
+      <c r="E49">
+        <v>0.03857225243298711</v>
+      </c>
+      <c r="F49">
+        <v>0.03061243005197997</v>
+      </c>
+      <c r="G49">
+        <v>-0.06001124122515631</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0524661191601377</v>
+        <v>-0.05251284886098379</v>
       </c>
       <c r="C50">
-        <v>-0.03600094836180671</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03831413322983842</v>
+      </c>
+      <c r="D50">
+        <v>-0.01966267657841727</v>
+      </c>
+      <c r="E50">
+        <v>-0.001320351559215639</v>
+      </c>
+      <c r="F50">
+        <v>-0.03970738661263531</v>
+      </c>
+      <c r="G50">
+        <v>0.00421207251168505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1416247644481059</v>
+        <v>-0.1364292372618386</v>
       </c>
       <c r="C52">
-        <v>-0.03514052191075902</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03416552781929458</v>
+      </c>
+      <c r="D52">
+        <v>-0.03975343297971741</v>
+      </c>
+      <c r="E52">
+        <v>0.09462243692242062</v>
+      </c>
+      <c r="F52">
+        <v>-0.06891259581669031</v>
+      </c>
+      <c r="G52">
+        <v>0.04105871496041166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1681107711768549</v>
+        <v>-0.1616991759198289</v>
       </c>
       <c r="C53">
-        <v>0.009308384477573714</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.005619340610108901</v>
+      </c>
+      <c r="D53">
+        <v>-0.07426416130403306</v>
+      </c>
+      <c r="E53">
+        <v>0.1535506969944062</v>
+      </c>
+      <c r="F53">
+        <v>-0.112077852252882</v>
+      </c>
+      <c r="G53">
+        <v>0.04038958388393599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01224677862426828</v>
+        <v>-0.01395763097307574</v>
       </c>
       <c r="C54">
-        <v>-0.03904958898983942</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.03900503152263628</v>
+      </c>
+      <c r="D54">
+        <v>-0.01803362231859519</v>
+      </c>
+      <c r="E54">
+        <v>-0.04281504408087254</v>
+      </c>
+      <c r="F54">
+        <v>-0.013517958737109</v>
+      </c>
+      <c r="G54">
+        <v>-0.002282621253386322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1217195527300267</v>
+        <v>-0.1192353849705922</v>
       </c>
       <c r="C55">
-        <v>-0.01307810119311142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01692467542375825</v>
+      </c>
+      <c r="D55">
+        <v>-0.05351386932723502</v>
+      </c>
+      <c r="E55">
+        <v>0.07444902377897404</v>
+      </c>
+      <c r="F55">
+        <v>-0.1261745461752151</v>
+      </c>
+      <c r="G55">
+        <v>0.04925234825945857</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1800143674659</v>
+        <v>-0.1746414437131869</v>
       </c>
       <c r="C56">
-        <v>0.005473886487171935</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.004976804194651258</v>
+      </c>
+      <c r="D56">
+        <v>-0.02564496688828402</v>
+      </c>
+      <c r="E56">
+        <v>0.1794604528114457</v>
+      </c>
+      <c r="F56">
+        <v>-0.1040306416458641</v>
+      </c>
+      <c r="G56">
+        <v>0.02396194794079917</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04292894918869302</v>
+        <v>-0.04225049660945255</v>
       </c>
       <c r="C58">
-        <v>-0.09838578582725035</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1083846617212963</v>
+      </c>
+      <c r="D58">
+        <v>0.004355539785352715</v>
+      </c>
+      <c r="E58">
+        <v>-0.03129284561847816</v>
+      </c>
+      <c r="F58">
+        <v>-0.03454929824386258</v>
+      </c>
+      <c r="G58">
+        <v>0.0008281814992654588</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1833892248528251</v>
+        <v>-0.1905252836663076</v>
       </c>
       <c r="C59">
-        <v>0.1698499890677596</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1774851937676022</v>
+      </c>
+      <c r="D59">
+        <v>0.08524596178770028</v>
+      </c>
+      <c r="E59">
+        <v>-0.0756455697229694</v>
+      </c>
+      <c r="F59">
+        <v>-0.0263951957000564</v>
+      </c>
+      <c r="G59">
+        <v>-0.04093846038131949</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2133798965327224</v>
+        <v>-0.2107393288657754</v>
       </c>
       <c r="C60">
-        <v>-0.00823187979941494</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.01180847930250114</v>
+      </c>
+      <c r="D60">
+        <v>0.0724289923592837</v>
+      </c>
+      <c r="E60">
+        <v>0.1829269860282376</v>
+      </c>
+      <c r="F60">
+        <v>-0.02498337399005254</v>
+      </c>
+      <c r="G60">
+        <v>-0.1003642866012852</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06204540015910053</v>
+        <v>-0.05996419743107047</v>
       </c>
       <c r="C61">
-        <v>-0.1281049194471493</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1257493023821294</v>
+      </c>
+      <c r="D61">
+        <v>-0.0239618891992525</v>
+      </c>
+      <c r="E61">
+        <v>-0.08173062682383547</v>
+      </c>
+      <c r="F61">
+        <v>-0.01849698299699332</v>
+      </c>
+      <c r="G61">
+        <v>-0.02559157736768036</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1702494934803983</v>
+        <v>-0.1664661203169728</v>
       </c>
       <c r="C62">
-        <v>0.004659789366904582</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.003728904999821506</v>
+      </c>
+      <c r="D62">
+        <v>-0.02569525212764493</v>
+      </c>
+      <c r="E62">
+        <v>0.1506326782069566</v>
+      </c>
+      <c r="F62">
+        <v>-0.09331896688502865</v>
+      </c>
+      <c r="G62">
+        <v>0.03357176686210377</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.04014617191588016</v>
+        <v>-0.04305132654139349</v>
       </c>
       <c r="C63">
-        <v>-0.07979979602453469</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.08327405662592964</v>
+      </c>
+      <c r="D63">
+        <v>-0.01961158432944254</v>
+      </c>
+      <c r="E63">
+        <v>-0.04564997797718055</v>
+      </c>
+      <c r="F63">
+        <v>0.0120523751446536</v>
+      </c>
+      <c r="G63">
+        <v>0.01998151177772299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.112916155721973</v>
+        <v>-0.1104498408307934</v>
       </c>
       <c r="C64">
-        <v>-0.05608399859649324</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.05983130708635443</v>
+      </c>
+      <c r="D64">
+        <v>-0.02813632905353252</v>
+      </c>
+      <c r="E64">
+        <v>0.03930546180764356</v>
+      </c>
+      <c r="F64">
+        <v>0.0071704661533682</v>
+      </c>
+      <c r="G64">
+        <v>-0.01514263450838114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1615632097814229</v>
+        <v>-0.1632090696730395</v>
       </c>
       <c r="C65">
-        <v>0.0611856908450974</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04839977554717661</v>
+      </c>
+      <c r="D65">
+        <v>-0.06855236099288334</v>
+      </c>
+      <c r="E65">
+        <v>0.02227190244783642</v>
+      </c>
+      <c r="F65">
+        <v>-0.05036067376176634</v>
+      </c>
+      <c r="G65">
+        <v>0.02137743402653284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0952058787888566</v>
+        <v>-0.09079973268447082</v>
       </c>
       <c r="C66">
-        <v>-0.1321101467153429</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1308894611317812</v>
+      </c>
+      <c r="D66">
+        <v>-0.02598021489928543</v>
+      </c>
+      <c r="E66">
+        <v>-0.0988023583089379</v>
+      </c>
+      <c r="F66">
+        <v>-0.005950362941936883</v>
+      </c>
+      <c r="G66">
+        <v>-0.004460030010092378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05447342989493772</v>
+        <v>-0.04745268745627155</v>
       </c>
       <c r="C67">
-        <v>-0.09341373553412693</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.08500603003148526</v>
+      </c>
+      <c r="D67">
+        <v>0.07297093525033571</v>
+      </c>
+      <c r="E67">
+        <v>0.05173275210382807</v>
+      </c>
+      <c r="F67">
+        <v>-0.04204866836455716</v>
+      </c>
+      <c r="G67">
+        <v>0.06164448489638546</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1427911985279044</v>
+        <v>-0.1449749742644049</v>
       </c>
       <c r="C68">
-        <v>0.2512306187831653</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2502471404833632</v>
+      </c>
+      <c r="D68">
+        <v>-0.003204242514867158</v>
+      </c>
+      <c r="E68">
+        <v>-0.1490257024552809</v>
+      </c>
+      <c r="F68">
+        <v>0.03215039336789664</v>
+      </c>
+      <c r="G68">
+        <v>-0.07552344033286688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0412592915752049</v>
+        <v>-0.03955455300510247</v>
       </c>
       <c r="C69">
-        <v>-0.0189359167481097</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.0208361270066693</v>
+      </c>
+      <c r="D69">
+        <v>0.01025442128167395</v>
+      </c>
+      <c r="E69">
+        <v>0.06086486056400094</v>
+      </c>
+      <c r="F69">
+        <v>-0.02484533178400515</v>
+      </c>
+      <c r="G69">
+        <v>0.06594884612927442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07570901141389869</v>
+        <v>-0.07351932796141228</v>
       </c>
       <c r="C70">
-        <v>-0.09984945016165865</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.09773886244158392</v>
+      </c>
+      <c r="D70">
+        <v>0.536288018432589</v>
+      </c>
+      <c r="E70">
+        <v>0.270320062916346</v>
+      </c>
+      <c r="F70">
+        <v>-0.1500593076528635</v>
+      </c>
+      <c r="G70">
+        <v>-0.5018573405307099</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1672405613038178</v>
+        <v>-0.1699901160117082</v>
       </c>
       <c r="C71">
-        <v>0.2588615220896092</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2560534675544044</v>
+      </c>
+      <c r="D71">
+        <v>0.004619430307873804</v>
+      </c>
+      <c r="E71">
+        <v>-0.1580429550766057</v>
+      </c>
+      <c r="F71">
+        <v>0.04318791468396699</v>
+      </c>
+      <c r="G71">
+        <v>-0.08675186797166538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1463788440551108</v>
+        <v>-0.1505753290873986</v>
       </c>
       <c r="C72">
-        <v>-0.009652105572645089</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.009779194166034446</v>
+      </c>
+      <c r="D72">
+        <v>-0.04111654663193214</v>
+      </c>
+      <c r="E72">
+        <v>0.04948887737023278</v>
+      </c>
+      <c r="F72">
+        <v>-0.0590162760858858</v>
+      </c>
+      <c r="G72">
+        <v>0.08539349285545018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1888755983984903</v>
+        <v>-0.1969540254307792</v>
       </c>
       <c r="C73">
-        <v>-0.02573396290817484</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.03105385099633739</v>
+      </c>
+      <c r="D73">
+        <v>-0.02698911854682537</v>
+      </c>
+      <c r="E73">
+        <v>0.1262130780170197</v>
+      </c>
+      <c r="F73">
+        <v>-0.033020091131046</v>
+      </c>
+      <c r="G73">
+        <v>0.04695206250529915</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08819397873702572</v>
+        <v>-0.08682388406417087</v>
       </c>
       <c r="C74">
-        <v>-0.003800358610169242</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01046882958591783</v>
+      </c>
+      <c r="D74">
+        <v>-0.0659948486264387</v>
+      </c>
+      <c r="E74">
+        <v>0.08714123982318334</v>
+      </c>
+      <c r="F74">
+        <v>-0.03268776482648521</v>
+      </c>
+      <c r="G74">
+        <v>0.04020170667723531</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1225960426964832</v>
+        <v>-0.1151533862663534</v>
       </c>
       <c r="C75">
-        <v>-0.02470973738532088</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02616306387617151</v>
+      </c>
+      <c r="D75">
+        <v>-0.0196482424043044</v>
+      </c>
+      <c r="E75">
+        <v>0.09710345465091856</v>
+      </c>
+      <c r="F75">
+        <v>-0.09987604773427729</v>
+      </c>
+      <c r="G75">
+        <v>0.07361719387871622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07748839437389637</v>
+        <v>-0.08741171741944487</v>
       </c>
       <c r="C77">
-        <v>-0.1158633134755283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1189797208193188</v>
+      </c>
+      <c r="D77">
+        <v>-0.08251327442807371</v>
+      </c>
+      <c r="E77">
+        <v>-0.07625684549873349</v>
+      </c>
+      <c r="F77">
+        <v>-0.07902692458102732</v>
+      </c>
+      <c r="G77">
+        <v>-0.1330233143327492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.07635655133036952</v>
+        <v>-0.08312623872131336</v>
       </c>
       <c r="C78">
-        <v>-0.1223499014697589</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1223268163822948</v>
+      </c>
+      <c r="D78">
+        <v>-0.0498557998462983</v>
+      </c>
+      <c r="E78">
+        <v>-0.08261398273209307</v>
+      </c>
+      <c r="F78">
+        <v>-0.108403722134753</v>
+      </c>
+      <c r="G78">
+        <v>-0.01104422298375071</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1679567632283695</v>
+        <v>-0.1634063851147605</v>
       </c>
       <c r="C79">
-        <v>-0.02113440123958053</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02181352683788731</v>
+      </c>
+      <c r="D79">
+        <v>-0.01432049406867599</v>
+      </c>
+      <c r="E79">
+        <v>0.081017871206515</v>
+      </c>
+      <c r="F79">
+        <v>-0.08324332869505634</v>
+      </c>
+      <c r="G79">
+        <v>0.04659658960346695</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07924116420603494</v>
+        <v>-0.07547095587388723</v>
       </c>
       <c r="C80">
-        <v>-0.0809450267243514</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.07564597841891514</v>
+      </c>
+      <c r="D80">
+        <v>0.0006245442838357679</v>
+      </c>
+      <c r="E80">
+        <v>-0.09599641965420506</v>
+      </c>
+      <c r="F80">
+        <v>0.06496601262980797</v>
+      </c>
+      <c r="G80">
+        <v>0.03926869519966866</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1126874182606652</v>
+        <v>-0.1062322397418609</v>
       </c>
       <c r="C81">
-        <v>0.01407584641631188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.01164945219106712</v>
+      </c>
+      <c r="D81">
+        <v>0.004768916154635998</v>
+      </c>
+      <c r="E81">
+        <v>0.1032408224243808</v>
+      </c>
+      <c r="F81">
+        <v>-0.07492819379813848</v>
+      </c>
+      <c r="G81">
+        <v>0.1051680957932799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1629419830863796</v>
+        <v>-0.1578789486895058</v>
       </c>
       <c r="C82">
-        <v>0.01293820129875524</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.009327850473926589</v>
+      </c>
+      <c r="D82">
+        <v>-0.07943866641596051</v>
+      </c>
+      <c r="E82">
+        <v>0.1467876748557831</v>
+      </c>
+      <c r="F82">
+        <v>-0.03026586568158908</v>
+      </c>
+      <c r="G82">
+        <v>0.0557755642402127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.0515371737399098</v>
+        <v>-0.04824250467939319</v>
       </c>
       <c r="C83">
-        <v>-0.06472047461114235</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.05981234647018386</v>
+      </c>
+      <c r="D83">
+        <v>0.02570156217221266</v>
+      </c>
+      <c r="E83">
+        <v>-0.001602754680556032</v>
+      </c>
+      <c r="F83">
+        <v>0.005113595957151946</v>
+      </c>
+      <c r="G83">
+        <v>-0.02262604648728539</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04742420173377292</v>
+        <v>-0.04619630786730217</v>
       </c>
       <c r="C84">
-        <v>-0.07892875468904671</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07610658877137427</v>
+      </c>
+      <c r="D84">
+        <v>0.01783356472184537</v>
+      </c>
+      <c r="E84">
+        <v>0.01043199494796732</v>
+      </c>
+      <c r="F84">
+        <v>-0.01796403513651845</v>
+      </c>
+      <c r="G84">
+        <v>-0.01624898412095316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1401752487509531</v>
+        <v>-0.1353726986088699</v>
       </c>
       <c r="C85">
-        <v>-0.00847070226611156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.01006758307160498</v>
+      </c>
+      <c r="D85">
+        <v>-0.07892398394976677</v>
+      </c>
+      <c r="E85">
+        <v>0.07950735129472894</v>
+      </c>
+      <c r="F85">
+        <v>-0.08488059302359191</v>
+      </c>
+      <c r="G85">
+        <v>0.06086043669543609</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.08400117747677333</v>
+        <v>-0.0839303707357687</v>
       </c>
       <c r="C86">
-        <v>-0.1552122849049802</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1575981198046545</v>
+      </c>
+      <c r="D86">
+        <v>0.6148981695482197</v>
+      </c>
+      <c r="E86">
+        <v>-0.445947797723229</v>
+      </c>
+      <c r="F86">
+        <v>-0.1795336890996596</v>
+      </c>
+      <c r="G86">
+        <v>0.4340422752318005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.09171735327473449</v>
+        <v>-0.08743304013631154</v>
       </c>
       <c r="C87">
-        <v>-0.1020093838107581</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.100876292310561</v>
+      </c>
+      <c r="D87">
+        <v>-0.1224422519667312</v>
+      </c>
+      <c r="E87">
+        <v>-0.1209173557635943</v>
+      </c>
+      <c r="F87">
+        <v>0.1410117365258593</v>
+      </c>
+      <c r="G87">
+        <v>-0.1318239868935535</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.0604557117684027</v>
+        <v>-0.05984483008478374</v>
       </c>
       <c r="C88">
-        <v>-0.0626439893741028</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06258641084671672</v>
+      </c>
+      <c r="D88">
+        <v>-0.007070606971094871</v>
+      </c>
+      <c r="E88">
+        <v>0.02877098226166637</v>
+      </c>
+      <c r="F88">
+        <v>-0.01763131258331781</v>
+      </c>
+      <c r="G88">
+        <v>0.004045984605431222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1515146171025721</v>
+        <v>-0.1510730897298225</v>
       </c>
       <c r="C89">
-        <v>0.2008614181466777</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2086103755097974</v>
+      </c>
+      <c r="D89">
+        <v>-0.01057225628629554</v>
+      </c>
+      <c r="E89">
+        <v>-0.1121634348049144</v>
+      </c>
+      <c r="F89">
+        <v>0.04566555510255982</v>
+      </c>
+      <c r="G89">
+        <v>-0.04447767544491263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1834240830472362</v>
+        <v>-0.1873024439617301</v>
       </c>
       <c r="C90">
-        <v>0.2326950923772805</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2350822429946028</v>
+      </c>
+      <c r="D90">
+        <v>0.004890949428063928</v>
+      </c>
+      <c r="E90">
+        <v>-0.1887521824994467</v>
+      </c>
+      <c r="F90">
+        <v>0.0788794341684125</v>
+      </c>
+      <c r="G90">
+        <v>-0.09720907606185694</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1260265537270619</v>
+        <v>-0.1200247592485936</v>
       </c>
       <c r="C91">
-        <v>0.01907877111816733</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01721585165574753</v>
+      </c>
+      <c r="D91">
+        <v>0.03044279712006764</v>
+      </c>
+      <c r="E91">
+        <v>0.1360958913300161</v>
+      </c>
+      <c r="F91">
+        <v>-0.08029776370068975</v>
+      </c>
+      <c r="G91">
+        <v>0.1290192701244701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1744593409442066</v>
+        <v>-0.1763828489824382</v>
       </c>
       <c r="C92">
-        <v>0.2665639001283886</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2764629968385221</v>
+      </c>
+      <c r="D92">
+        <v>0.006871232165004664</v>
+      </c>
+      <c r="E92">
+        <v>-0.2140295061883202</v>
+      </c>
+      <c r="F92">
+        <v>-0.01207647393382181</v>
+      </c>
+      <c r="G92">
+        <v>-0.07653632040826436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1783279181148777</v>
+        <v>-0.1859954296297381</v>
       </c>
       <c r="C93">
-        <v>0.2256095642049053</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.229233512969555</v>
+      </c>
+      <c r="D93">
+        <v>0.01053513548049856</v>
+      </c>
+      <c r="E93">
+        <v>-0.1086099233461594</v>
+      </c>
+      <c r="F93">
+        <v>-0.02665194004567258</v>
+      </c>
+      <c r="G93">
+        <v>-0.06413490709125623</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1187541446765892</v>
+        <v>-0.1132748447285396</v>
       </c>
       <c r="C94">
-        <v>-0.03603728571309459</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03629198063109385</v>
+      </c>
+      <c r="D94">
+        <v>-0.0204652732007971</v>
+      </c>
+      <c r="E94">
+        <v>0.09423329292405931</v>
+      </c>
+      <c r="F94">
+        <v>-0.09605181081970304</v>
+      </c>
+      <c r="G94">
+        <v>0.07022394371971125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1193314125739621</v>
+        <v>-0.1193297262888922</v>
       </c>
       <c r="C95">
-        <v>-0.1079187953275318</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1162293037607562</v>
+      </c>
+      <c r="D95">
+        <v>-0.0007793101212331563</v>
+      </c>
+      <c r="E95">
+        <v>-0.07145412917513076</v>
+      </c>
+      <c r="F95">
+        <v>-0.01926197140207114</v>
+      </c>
+      <c r="G95">
+        <v>-0.009383523768495225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1155536968439735</v>
+        <v>-0.1138361279372523</v>
       </c>
       <c r="C96">
-        <v>-0.1275071835648008</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1302582847835903</v>
+      </c>
+      <c r="D96">
+        <v>0.01941243893258255</v>
+      </c>
+      <c r="E96">
+        <v>0.05353037532868838</v>
+      </c>
+      <c r="F96">
+        <v>-0.01735363501565134</v>
+      </c>
+      <c r="G96">
+        <v>-0.1301918170407969</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1973136488353673</v>
+        <v>-0.2013236980553724</v>
       </c>
       <c r="C97">
-        <v>-0.01826038844371912</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.009643843660715631</v>
+      </c>
+      <c r="D97">
+        <v>0.178738649532508</v>
+      </c>
+      <c r="E97">
+        <v>0.251964082159869</v>
+      </c>
+      <c r="F97">
+        <v>0.7188652449685597</v>
+      </c>
+      <c r="G97">
+        <v>0.390922035160995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1978937946448003</v>
+        <v>-0.2044993378000683</v>
       </c>
       <c r="C98">
-        <v>-0.02516500094149334</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.02793877360695146</v>
+      </c>
+      <c r="D98">
+        <v>0.07508678336487511</v>
+      </c>
+      <c r="E98">
+        <v>0.07229213427091986</v>
+      </c>
+      <c r="F98">
+        <v>0.09334434630796318</v>
+      </c>
+      <c r="G98">
+        <v>-0.1217255908158572</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.0532047296641654</v>
+        <v>-0.05317839220180499</v>
       </c>
       <c r="C99">
-        <v>-0.06433548540354136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.06312637236410541</v>
+      </c>
+      <c r="D99">
+        <v>0.001006263841434793</v>
+      </c>
+      <c r="E99">
+        <v>-0.03715450656929892</v>
+      </c>
+      <c r="F99">
+        <v>0.02448262344459746</v>
+      </c>
+      <c r="G99">
+        <v>-0.008336836466791878</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.09882859965341788</v>
+        <v>-0.09508837094984716</v>
       </c>
       <c r="C100">
-        <v>-0.3099426445834931</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2942244962700435</v>
+      </c>
+      <c r="D100">
+        <v>0.1196550177650025</v>
+      </c>
+      <c r="E100">
+        <v>-0.1196008640177556</v>
+      </c>
+      <c r="F100">
+        <v>0.4552556758102618</v>
+      </c>
+      <c r="G100">
+        <v>-0.3702273045403892</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02491942161218253</v>
+        <v>-0.02681005928965352</v>
       </c>
       <c r="C101">
-        <v>-0.05432335672961176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05243678796301093</v>
+      </c>
+      <c r="D101">
+        <v>-0.005735194786944276</v>
+      </c>
+      <c r="E101">
+        <v>-0.06465402110839293</v>
+      </c>
+      <c r="F101">
+        <v>-0.01392323488556336</v>
+      </c>
+      <c r="G101">
+        <v>0.004020700744875546</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
